--- a/Document/7.Testing/TestCase_Sprint1.xlsx
+++ b/Document/7.Testing/TestCase_Sprint1.xlsx
@@ -14,12 +14,12 @@
     <sheet name="Logout" sheetId="6" r:id="rId5"/>
     <sheet name="Modul Report" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="178">
   <si>
     <t>Blue Team</t>
   </si>
@@ -468,9 +468,6 @@
     <t>TC_LOGIN01</t>
   </si>
   <si>
-    <t>[Log-in]</t>
-  </si>
-  <si>
     <t>User must be into website</t>
   </si>
   <si>
@@ -555,30 +552,15 @@
     <t>Creator</t>
   </si>
   <si>
-    <t>Project Code</t>
-  </si>
-  <si>
-    <t>Reviewer/Approver</t>
-  </si>
-  <si>
-    <t>Document Code</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Module Name</t>
   </si>
   <si>
-    <t>Not Run</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -600,12 +582,6 @@
     <t>Test coverage</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Test successful coverage</t>
-  </si>
-  <si>
     <t>View accommodation on map</t>
   </si>
   <si>
@@ -616,16 +592,116 @@
   </si>
   <si>
     <t>Huynh Thi Thanh Van</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>TC_R15</t>
+  </si>
+  <si>
+    <t>Register with full name contains numbers.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha12 Lan'
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>TC_R16</t>
+  </si>
+  <si>
+    <t>Register with phone number contrain special characters.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha12 Lan'
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01@$675373265'</t>
+  </si>
+  <si>
+    <t>The screen displays "Vui lòng nhập đúng số điện thoại".</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>TC_R17</t>
+  </si>
+  <si>
+    <t>Register with phone number contrain alphabetical.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha12 Lan'
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01aj675373265'</t>
+  </si>
+  <si>
+    <t>TC_R18</t>
+  </si>
+  <si>
+    <t>Register without phone number.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": Empty</t>
+  </si>
+  <si>
+    <t>1) Open browser 
+2) Type the link: 
+3) Click on "Đăng ký" button
+4) Don't input information for "Số điện thoại" textbox.
+5) Input valid information for others textbox.
+6) Click on "Đăng ký"</t>
+  </si>
+  <si>
+    <t>TC_R19</t>
+  </si>
+  <si>
+    <t>Register with valid phone number.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": 12345678</t>
+  </si>
+  <si>
+    <t>1) Open browser 
+2) Type the link: 
+3) Click on "Đăng ký" button
+5) Input information for boxes.
+6) Click on "Đăng ký"</t>
+  </si>
+  <si>
+    <t>Click on "Thoát" button</t>
+  </si>
+  <si>
+    <t>Not run</t>
+  </si>
+  <si>
+    <t>30/9/2018</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Huynh Vu Ha Lan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
-  </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,11 +853,15 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -817,18 +897,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="31"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -902,19 +982,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="8"/>
       </left>
@@ -957,11 +1024,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1077,57 +1181,87 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,35 +1311,23 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,7 +1636,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,14 +1651,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1545,12 +1667,12 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1558,12 +1680,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1571,39 +1693,39 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+    <row r="5" spans="1:10" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+    </row>
+    <row r="6" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1635,29 +1757,31 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="61" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1671,7 +1795,9 @@
       <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +1816,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1715,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,14 +1858,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1748,12 +1874,12 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1761,12 +1887,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1774,39 +1900,39 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+    <row r="5" spans="1:10" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+    </row>
+    <row r="6" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1841,14 +1967,14 @@
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="78" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1868,10 +1994,10 @@
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="69"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
@@ -1903,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" activeCellId="1" sqref="A10:XFD10 A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,51 +2047,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
@@ -2441,6 +2567,151 @@
       </c>
       <c r="I22" s="26" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2459,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,62 +2749,62 @@
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="72" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="73"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="74" t="s">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="67" t="s">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
@@ -2543,159 +2814,141 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="G7" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="F8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="B9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="G9" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="33" t="s">
+    <row r="10" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="34" t="s">
+      <c r="B10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="G10" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="32" t="s">
+    <row r="11" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="34" t="s">
+      <c r="E11" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="32" t="s">
+    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="34" t="s">
+      <c r="B12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="G12" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2719,7 +2972,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,71 +2989,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="73"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="74" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="75"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="85"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
+    <row r="5" spans="1:10" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -2810,7 +3063,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>10</v>
@@ -2833,25 +3086,29 @@
     </row>
     <row r="7" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="C7" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="D7" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>136</v>
-      </c>
       <c r="F7" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+        <v>173</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>135</v>
+      </c>
       <c r="I7" s="37" t="s">
         <v>23</v>
       </c>
@@ -2875,32 +3132,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D19" activeCellId="2" sqref="F10:F16 D18 D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="A1" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -2913,317 +3170,276 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="87"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="79"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="B4" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B8" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="C8" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81" t="s">
+      <c r="G8" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>1</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="45">
+        <v>2</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0</v>
+      </c>
+      <c r="E9" s="64">
+        <v>0</v>
+      </c>
+      <c r="F9" s="65">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45">
+        <f>SUM(C9:F9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="45">
+        <v>1</v>
+      </c>
+      <c r="D10" s="45">
+        <v>1</v>
+      </c>
+      <c r="E10" s="64">
+        <v>0</v>
+      </c>
+      <c r="F10" s="64">
+        <v>0</v>
+      </c>
+      <c r="G10" s="45">
+        <f>SUM(C10:E10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <f t="shared" ref="A11:A13" si="0">A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="C11" s="45">
+        <v>13</v>
+      </c>
+      <c r="D11" s="45">
+        <v>6</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="64">
+        <v>0</v>
+      </c>
+      <c r="G11" s="45">
+        <f t="shared" ref="G11:G13" si="1">SUM(C11:F11)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
-        <v>1</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="46">
-        <v>2</v>
-      </c>
-      <c r="D11" s="46">
+      <c r="C12" s="45">
+        <v>5</v>
+      </c>
+      <c r="D12" s="45">
         <v>0</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E12" s="64">
         <v>0</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F12" s="64">
         <v>0</v>
       </c>
-      <c r="G11" s="46">
-        <f>SUM(C11:F11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
-        <f>A11+1</f>
-        <v>2</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="46">
-        <v>1</v>
-      </c>
-      <c r="D12" s="46">
-        <v>1</v>
-      </c>
-      <c r="E12" s="59">
-        <v>0</v>
-      </c>
-      <c r="F12" s="59">
-        <v>0</v>
-      </c>
-      <c r="G12" s="46">
-        <f t="shared" ref="G12:G15" si="0">SUM(C12:F12)</f>
-        <v>2</v>
+      <c r="G12" s="45">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
-        <f t="shared" ref="A13:A15" si="1">A12+1</f>
-        <v>3</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="46">
-        <v>11</v>
-      </c>
-      <c r="D13" s="46">
-        <v>3</v>
-      </c>
-      <c r="E13" s="59">
-        <v>0</v>
-      </c>
-      <c r="F13" s="59">
-        <v>0</v>
-      </c>
-      <c r="G13" s="46">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="46">
-        <v>5</v>
-      </c>
-      <c r="D14" s="46">
-        <v>0</v>
-      </c>
-      <c r="E14" s="59">
-        <v>0</v>
-      </c>
-      <c r="F14" s="59">
-        <v>0</v>
-      </c>
-      <c r="G14" s="46">
+      <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B13" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="45">
+        <v>1</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0</v>
+      </c>
+      <c r="E13" s="64">
+        <v>0</v>
+      </c>
+      <c r="F13" s="64">
+        <v>0</v>
+      </c>
+      <c r="G13" s="45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="48">
+        <f>SUM(C9:C13)</f>
+        <v>22</v>
+      </c>
+      <c r="D14" s="67">
+        <f>SUM(D9:D13)</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="67">
+        <f>SUM(E9:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="67">
+        <f ca="1">SUM(F9:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="67">
+        <f>SUM(G9:G13)</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="57">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="46">
-        <v>0</v>
-      </c>
-      <c r="E15" s="59">
-        <v>0</v>
-      </c>
-      <c r="F15" s="59">
-        <v>0</v>
-      </c>
-      <c r="G15" s="46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A15" s="50"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="49">
-        <f>SUM(C2:C15)</f>
-        <v>20</v>
-      </c>
-      <c r="D16" s="49">
-        <f>SUM(D2:D15)</f>
-        <v>4</v>
-      </c>
-      <c r="E16" s="60">
-        <f>SUM(E2:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="49">
-        <f>SUM(C16:F16)</f>
-        <v>24</v>
-      </c>
+      <c r="A16" s="40"/>
+      <c r="B16" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="70">
+        <f>C14/G14*100</f>
+        <v>75.862068965517238</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="86">
-        <v>100</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="86">
-        <v>100</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:G7"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
